--- a/data/pokemon_dex_hisui_paldea.xlsx
+++ b/data/pokemon_dex_hisui_paldea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panpa\Google Drive\Data science\pkmr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6B18CF-3C04-4064-8026-29AD3DA7E692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB8AF94-E86D-4141-AABF-45FAC1E32F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{B1A15022-E2F9-4772-961C-F274C4B8A95E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="222">
   <si>
     <t>name</t>
   </si>
@@ -329,9 +329,6 @@
     <t>Lechonk</t>
   </si>
   <si>
-    <t>Oinkologne</t>
-  </si>
-  <si>
     <t>Tarountula</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t>Flittle</t>
   </si>
   <si>
-    <t>Espartha</t>
-  </si>
-  <si>
     <t>Wiglett</t>
   </si>
   <si>
@@ -398,15 +392,9 @@
     <t>Cetitan</t>
   </si>
   <si>
-    <t>Arbolovia</t>
-  </si>
-  <si>
     <t>Baxcalibur</t>
   </si>
   <si>
-    <t>Tatsugiri</t>
-  </si>
-  <si>
     <t>Cyclizar</t>
   </si>
   <si>
@@ -428,9 +416,6 @@
     <t>Bombirdier</t>
   </si>
   <si>
-    <t>Squawkabilly</t>
-  </si>
-  <si>
     <t>Flamigo</t>
   </si>
   <si>
@@ -440,9 +425,6 @@
     <t>Nacli</t>
   </si>
   <si>
-    <t>Naclistack</t>
-  </si>
-  <si>
     <t>Garganacl</t>
   </si>
   <si>
@@ -464,9 +446,6 @@
     <t>Bramblin</t>
   </si>
   <si>
-    <t>Gimmighoul</t>
-  </si>
-  <si>
     <t>Great Tusk</t>
   </si>
   <si>
@@ -485,9 +464,6 @@
     <t>Slither Wing</t>
   </si>
   <si>
-    <t>Paradox Suicune</t>
-  </si>
-  <si>
     <t>Roaring Moon</t>
   </si>
   <si>
@@ -512,18 +488,6 @@
     <t>Iron Valiant</t>
   </si>
   <si>
-    <t>dark deer</t>
-  </si>
-  <si>
-    <t>dark jaguar</t>
-  </si>
-  <si>
-    <t>dark snail</t>
-  </si>
-  <si>
-    <t>dark fish</t>
-  </si>
-  <si>
     <t>Koraidon</t>
   </si>
   <si>
@@ -557,9 +521,6 @@
     <t>Clodsire</t>
   </si>
   <si>
-    <t>Dudunsparce</t>
-  </si>
-  <si>
     <t>Kingambit</t>
   </si>
   <si>
@@ -572,63 +533,24 @@
     <t>Houndstone</t>
   </si>
   <si>
-    <t>Rellor2</t>
-  </si>
-  <si>
-    <t>Finizen2</t>
-  </si>
-  <si>
-    <t>Smoliv3</t>
-  </si>
-  <si>
     <t>Scovillain</t>
   </si>
   <si>
     <t>Revavroom</t>
   </si>
   <si>
-    <t>Maushold</t>
-  </si>
-  <si>
     <t>Arctibax</t>
   </si>
   <si>
-    <t>Glimmet2</t>
-  </si>
-  <si>
     <t>Dachsbun</t>
   </si>
   <si>
     <t>Mabosstiff</t>
   </si>
   <si>
-    <t>Bramblin2</t>
-  </si>
-  <si>
-    <t>Gimmighoul2</t>
-  </si>
-  <si>
-    <t>Paradox Virizion</t>
-  </si>
-  <si>
     <t>Annihilape</t>
   </si>
   <si>
-    <t>Paldean Tauros1</t>
-  </si>
-  <si>
-    <t>Paldean Tauros2</t>
-  </si>
-  <si>
-    <t>Paldean Tauros3</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>third legend</t>
-  </si>
-  <si>
     <t>Mythical</t>
   </si>
   <si>
@@ -636,6 +558,150 @@
   </si>
   <si>
     <t>Miraidon</t>
+  </si>
+  <si>
+    <t>Rabsca</t>
+  </si>
+  <si>
+    <t>Espathra</t>
+  </si>
+  <si>
+    <t>Arboliva</t>
+  </si>
+  <si>
+    <t>Frigibax</t>
+  </si>
+  <si>
+    <t>Naclstack</t>
+  </si>
+  <si>
+    <t>Glimmora</t>
+  </si>
+  <si>
+    <t>Brambleghast</t>
+  </si>
+  <si>
+    <t>Gholdengo</t>
+  </si>
+  <si>
+    <t>Maushold Additional Form @</t>
+  </si>
+  <si>
+    <t>Palafin Base Form @</t>
+  </si>
+  <si>
+    <t>Oinkologne Male Form @</t>
+  </si>
+  <si>
+    <t>Oinkologne Female Form @</t>
+  </si>
+  <si>
+    <t>Dudunsparce Two-segment @</t>
+  </si>
+  <si>
+    <t>Dudunsparce Three-segment @</t>
+  </si>
+  <si>
+    <t>Palafin Hero Form @</t>
+  </si>
+  <si>
+    <t>Maushold Base Form @</t>
+  </si>
+  <si>
+    <t>Tatsugiri Colour1 @</t>
+  </si>
+  <si>
+    <t>Tatsugiri Colour2 @</t>
+  </si>
+  <si>
+    <t>Tatsugiri Colour3 @</t>
+  </si>
+  <si>
+    <t>Squawkabilly Colour1 @</t>
+  </si>
+  <si>
+    <t>Squawkabilly Colour2 @</t>
+  </si>
+  <si>
+    <t>Squawkabilly Colour3 @</t>
+  </si>
+  <si>
+    <t>Squawkabilly Colour4 @</t>
+  </si>
+  <si>
+    <t>Gimmighoul (Chest Form)</t>
+  </si>
+  <si>
+    <t>Gimmighoul (Roaming Form)</t>
+  </si>
+  <si>
+    <t>Ancient Suicune</t>
+  </si>
+  <si>
+    <t>Future Virizion</t>
+  </si>
+  <si>
+    <t>Paldean Tauros (Fighting type) @</t>
+  </si>
+  <si>
+    <t>Paldean Tauros (Fire type)</t>
+  </si>
+  <si>
+    <t>Paldean Tauros (Water type)</t>
+  </si>
+  <si>
+    <t>Third Legendary</t>
+  </si>
+  <si>
+    <t>Undiscovered</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Water 1</t>
+  </si>
+  <si>
+    <t>Mineral</t>
+  </si>
+  <si>
+    <t>Water 3</t>
+  </si>
+  <si>
+    <t>Human-Like</t>
+  </si>
+  <si>
+    <t>Water 2</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>Water1</t>
+  </si>
+  <si>
+    <t>Water3</t>
+  </si>
+  <si>
+    <t>Water2</t>
+  </si>
+  <si>
+    <t>egg_type_1</t>
+  </si>
+  <si>
+    <t>egg_type_2</t>
+  </si>
+  <si>
+    <t>Ting-Lu (Deer)</t>
+  </si>
+  <si>
+    <t>Chien-Pao (Jaguar)</t>
+  </si>
+  <si>
+    <t>Wo-Chien (Snail)</t>
+  </si>
+  <si>
+    <t>Chi-Yu (Fish)</t>
   </si>
 </sst>
 </file>
@@ -986,20 +1052,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5180E553-97C3-4D11-A13B-DD8E8ABEE531}">
-  <dimension ref="A1:O138"/>
+  <dimension ref="A1:Q148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="25.125" customWidth="1"/>
-    <col min="4" max="5" width="9" customWidth="1"/>
-    <col min="9" max="14" width="9" customWidth="1"/>
+    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="3.875" customWidth="1"/>
+    <col min="7" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1045,8 +1113,14 @@
       <c r="O1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1045</v>
       </c>
@@ -1089,8 +1163,11 @@
       <c r="N2">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1046</v>
       </c>
@@ -1133,8 +1210,11 @@
       <c r="N3">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>1047</v>
       </c>
@@ -1180,8 +1260,11 @@
       <c r="O4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>1048</v>
       </c>
@@ -1227,8 +1310,11 @@
       <c r="O5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>1049</v>
       </c>
@@ -1274,8 +1360,11 @@
       <c r="O6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>1050</v>
       </c>
@@ -1321,8 +1410,11 @@
       <c r="O7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>1051</v>
       </c>
@@ -1368,8 +1460,11 @@
       <c r="O8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>1052</v>
       </c>
@@ -1415,8 +1510,11 @@
       <c r="O9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>1053</v>
       </c>
@@ -1462,8 +1560,11 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>1054</v>
       </c>
@@ -1509,8 +1610,11 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>1055</v>
       </c>
@@ -1556,8 +1660,11 @@
       <c r="O12">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>1056</v>
       </c>
@@ -1603,8 +1710,11 @@
       <c r="O13">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>1057</v>
       </c>
@@ -1647,8 +1757,11 @@
       <c r="N14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>1058</v>
       </c>
@@ -1691,8 +1804,11 @@
       <c r="N15">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>1059</v>
       </c>
@@ -1738,8 +1854,11 @@
       <c r="O16">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>1060</v>
       </c>
@@ -1785,8 +1904,11 @@
       <c r="O17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>1061</v>
       </c>
@@ -1832,8 +1954,11 @@
       <c r="O18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>1062</v>
       </c>
@@ -1879,8 +2004,11 @@
       <c r="O19">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>1063</v>
       </c>
@@ -1926,8 +2054,11 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>1064</v>
       </c>
@@ -1970,8 +2101,11 @@
       <c r="O21">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>1065</v>
       </c>
@@ -2017,8 +2151,11 @@
       <c r="O22">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>1066</v>
       </c>
@@ -2064,8 +2201,11 @@
       <c r="O23">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>1067</v>
       </c>
@@ -2111,8 +2251,11 @@
       <c r="O24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>1068</v>
       </c>
@@ -2158,8 +2301,11 @@
       <c r="O25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>1069</v>
       </c>
@@ -2205,8 +2351,11 @@
       <c r="O26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>1070</v>
       </c>
@@ -2252,8 +2401,14 @@
       <c r="O27">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>1071</v>
       </c>
@@ -2299,8 +2454,11 @@
       <c r="O28">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>1072</v>
       </c>
@@ -2319,8 +2477,32 @@
       <c r="G29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="I29">
+        <v>40</v>
+      </c>
+      <c r="J29">
+        <v>61</v>
+      </c>
+      <c r="K29">
+        <v>54</v>
+      </c>
+      <c r="L29">
+        <v>45</v>
+      </c>
+      <c r="M29">
+        <v>45</v>
+      </c>
+      <c r="N29">
+        <v>65</v>
+      </c>
+      <c r="P29" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>1073</v>
       </c>
@@ -2339,8 +2521,32 @@
       <c r="G30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="I30">
+        <v>61</v>
+      </c>
+      <c r="J30">
+        <v>80</v>
+      </c>
+      <c r="K30">
+        <v>63</v>
+      </c>
+      <c r="L30">
+        <v>60</v>
+      </c>
+      <c r="M30">
+        <v>63</v>
+      </c>
+      <c r="N30">
+        <v>83</v>
+      </c>
+      <c r="P30" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>1074</v>
       </c>
@@ -2362,8 +2568,32 @@
       <c r="H31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="I31">
+        <v>76</v>
+      </c>
+      <c r="J31">
+        <v>110</v>
+      </c>
+      <c r="K31">
+        <v>70</v>
+      </c>
+      <c r="L31">
+        <v>81</v>
+      </c>
+      <c r="M31">
+        <v>70</v>
+      </c>
+      <c r="N31">
+        <v>123</v>
+      </c>
+      <c r="P31" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>1075</v>
       </c>
@@ -2382,8 +2612,29 @@
       <c r="G32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>67</v>
+      </c>
+      <c r="J32">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>59</v>
+      </c>
+      <c r="L32">
+        <v>63</v>
+      </c>
+      <c r="M32">
+        <v>40</v>
+      </c>
+      <c r="N32">
+        <v>36</v>
+      </c>
+      <c r="P32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>1076</v>
       </c>
@@ -2402,8 +2653,29 @@
       <c r="G33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>81</v>
+      </c>
+      <c r="J33">
+        <v>55</v>
+      </c>
+      <c r="K33">
+        <v>78</v>
+      </c>
+      <c r="L33">
+        <v>90</v>
+      </c>
+      <c r="M33">
+        <v>58</v>
+      </c>
+      <c r="N33">
+        <v>49</v>
+      </c>
+      <c r="P33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>1077</v>
       </c>
@@ -2425,8 +2697,29 @@
       <c r="H34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>104</v>
+      </c>
+      <c r="J34">
+        <v>75</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="L34">
+        <v>110</v>
+      </c>
+      <c r="M34">
+        <v>75</v>
+      </c>
+      <c r="N34">
+        <v>66</v>
+      </c>
+      <c r="P34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>1078</v>
       </c>
@@ -2445,8 +2738,32 @@
       <c r="G35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>55</v>
+      </c>
+      <c r="J35">
+        <v>65</v>
+      </c>
+      <c r="K35">
+        <v>45</v>
+      </c>
+      <c r="L35">
+        <v>50</v>
+      </c>
+      <c r="M35">
+        <v>45</v>
+      </c>
+      <c r="N35">
+        <v>50</v>
+      </c>
+      <c r="P35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>1079</v>
       </c>
@@ -2465,8 +2782,32 @@
       <c r="G36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>70</v>
+      </c>
+      <c r="J36">
+        <v>85</v>
+      </c>
+      <c r="K36">
+        <v>65</v>
+      </c>
+      <c r="L36">
+        <v>65</v>
+      </c>
+      <c r="M36">
+        <v>60</v>
+      </c>
+      <c r="N36">
+        <v>65</v>
+      </c>
+      <c r="P36" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>1080</v>
       </c>
@@ -2488,8 +2829,32 @@
       <c r="H37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>85</v>
+      </c>
+      <c r="J37">
+        <v>120</v>
+      </c>
+      <c r="K37">
+        <v>80</v>
+      </c>
+      <c r="L37">
+        <v>85</v>
+      </c>
+      <c r="M37">
+        <v>75</v>
+      </c>
+      <c r="N37">
+        <v>85</v>
+      </c>
+      <c r="P37" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>1081</v>
       </c>
@@ -2508,8 +2873,29 @@
       <c r="G38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>54</v>
+      </c>
+      <c r="J38">
+        <v>45</v>
+      </c>
+      <c r="K38">
+        <v>40</v>
+      </c>
+      <c r="L38">
+        <v>35</v>
+      </c>
+      <c r="M38">
+        <v>45</v>
+      </c>
+      <c r="N38">
+        <v>35</v>
+      </c>
+      <c r="P38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>1082</v>
       </c>
@@ -2517,7 +2903,7 @@
         <v>916</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -2528,16 +2914,37 @@
       <c r="G39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>110</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>75</v>
+      </c>
+      <c r="L39">
+        <v>59</v>
+      </c>
+      <c r="M39">
+        <v>80</v>
+      </c>
+      <c r="N39">
+        <v>65</v>
+      </c>
+      <c r="P39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>1083</v>
       </c>
       <c r="B40">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D40">
         <v>9</v>
@@ -2548,16 +2955,37 @@
       <c r="G40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40">
+        <v>115</v>
+      </c>
+      <c r="J40">
+        <v>90</v>
+      </c>
+      <c r="K40">
+        <v>70</v>
+      </c>
+      <c r="L40">
+        <v>59</v>
+      </c>
+      <c r="M40">
+        <v>90</v>
+      </c>
+      <c r="N40">
+        <v>65</v>
+      </c>
+      <c r="P40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>1084</v>
       </c>
       <c r="B41">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="D41">
         <v>9</v>
@@ -2566,18 +2994,39 @@
         <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I41">
+        <v>125</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>80</v>
+      </c>
+      <c r="L41">
+        <v>85</v>
+      </c>
+      <c r="M41">
+        <v>75</v>
+      </c>
+      <c r="N41">
+        <v>55</v>
+      </c>
+      <c r="P41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>1085</v>
       </c>
       <c r="B42">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D42">
         <v>9</v>
@@ -2586,18 +3035,39 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I42">
+        <v>125</v>
+      </c>
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42">
+        <v>80</v>
+      </c>
+      <c r="L42">
+        <v>85</v>
+      </c>
+      <c r="M42">
+        <v>75</v>
+      </c>
+      <c r="N42">
+        <v>55</v>
+      </c>
+      <c r="P42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>1086</v>
       </c>
       <c r="B43">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D43">
         <v>9</v>
@@ -2608,16 +3078,37 @@
       <c r="G43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43">
+        <v>35</v>
+      </c>
+      <c r="J43">
+        <v>41</v>
+      </c>
+      <c r="K43">
+        <v>45</v>
+      </c>
+      <c r="L43">
+        <v>29</v>
+      </c>
+      <c r="M43">
+        <v>40</v>
+      </c>
+      <c r="N43">
+        <v>20</v>
+      </c>
+      <c r="P43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>1087</v>
       </c>
       <c r="B44">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="D44">
         <v>9</v>
@@ -2628,19 +3119,37 @@
       <c r="G44" t="s">
         <v>46</v>
       </c>
-      <c r="H44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44">
+        <v>60</v>
+      </c>
+      <c r="J44">
+        <v>79</v>
+      </c>
+      <c r="K44">
+        <v>92</v>
+      </c>
+      <c r="L44">
+        <v>52</v>
+      </c>
+      <c r="M44">
+        <v>86</v>
+      </c>
+      <c r="N44">
+        <v>35</v>
+      </c>
+      <c r="P44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>1088</v>
       </c>
       <c r="B45">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D45">
         <v>9</v>
@@ -2651,16 +3160,37 @@
       <c r="G45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>33</v>
+      </c>
+      <c r="J45">
+        <v>46</v>
+      </c>
+      <c r="K45">
+        <v>40</v>
+      </c>
+      <c r="L45">
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <v>25</v>
+      </c>
+      <c r="N45">
+        <v>45</v>
+      </c>
+      <c r="P45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>1089</v>
       </c>
       <c r="B46">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -2672,18 +3202,39 @@
         <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I46">
+        <v>71</v>
+      </c>
+      <c r="J46">
+        <v>102</v>
+      </c>
+      <c r="K46">
+        <v>78</v>
+      </c>
+      <c r="L46">
+        <v>52</v>
+      </c>
+      <c r="M46">
+        <v>55</v>
+      </c>
+      <c r="N46">
+        <v>92</v>
+      </c>
+      <c r="P46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>1090</v>
       </c>
       <c r="B47">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D47">
         <v>9</v>
@@ -2692,18 +3243,39 @@
         <v>36</v>
       </c>
       <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47">
+        <v>41</v>
+      </c>
+      <c r="J47">
+        <v>50</v>
+      </c>
+      <c r="K47">
+        <v>60</v>
+      </c>
+      <c r="L47">
         <v>31</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="M47">
+        <v>58</v>
+      </c>
+      <c r="N47">
+        <v>30</v>
+      </c>
+      <c r="P47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>1091</v>
       </c>
       <c r="B48">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D48">
         <v>9</v>
@@ -2712,18 +3284,42 @@
         <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48">
+        <v>75</v>
+      </c>
+      <c r="J48">
+        <v>50</v>
+      </c>
+      <c r="K48">
+        <v>85</v>
+      </c>
+      <c r="L48">
+        <v>115</v>
+      </c>
+      <c r="M48">
+        <v>100</v>
+      </c>
+      <c r="N48">
+        <v>45</v>
+      </c>
+      <c r="P48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>1092</v>
       </c>
       <c r="B49">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D49">
         <v>9</v>
@@ -2732,18 +3328,39 @@
         <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I49">
+        <v>50</v>
+      </c>
+      <c r="J49">
+        <v>61</v>
+      </c>
+      <c r="K49">
+        <v>60</v>
+      </c>
+      <c r="L49">
+        <v>30</v>
+      </c>
+      <c r="M49">
+        <v>55</v>
+      </c>
+      <c r="N49">
+        <v>34</v>
+      </c>
+      <c r="P49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>1093</v>
       </c>
       <c r="B50">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="D50">
         <v>9</v>
@@ -2752,18 +3369,39 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I50">
+        <v>72</v>
+      </c>
+      <c r="J50">
+        <v>101</v>
+      </c>
+      <c r="K50">
+        <v>100</v>
+      </c>
+      <c r="L50">
+        <v>50</v>
+      </c>
+      <c r="M50">
+        <v>97</v>
+      </c>
+      <c r="N50">
+        <v>68</v>
+      </c>
+      <c r="P50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>1094</v>
       </c>
       <c r="B51">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="D51">
         <v>9</v>
@@ -2772,41 +3410,80 @@
         <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>30</v>
+      </c>
+      <c r="J51">
+        <v>35</v>
+      </c>
+      <c r="K51">
+        <v>30</v>
+      </c>
+      <c r="L51">
+        <v>55</v>
+      </c>
+      <c r="M51">
+        <v>30</v>
+      </c>
+      <c r="N51">
+        <v>75</v>
+      </c>
+      <c r="P51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>1095</v>
       </c>
       <c r="B52">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52">
+        <v>95</v>
+      </c>
+      <c r="J52">
+        <v>60</v>
+      </c>
+      <c r="K52">
+        <v>60</v>
+      </c>
+      <c r="L52">
+        <v>101</v>
+      </c>
+      <c r="M52">
+        <v>60</v>
+      </c>
+      <c r="N52">
         <v>105</v>
       </c>
-      <c r="D52">
-        <v>9</v>
-      </c>
-      <c r="E52" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="P52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>1096</v>
       </c>
       <c r="B53">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="D53">
         <v>9</v>
@@ -2815,18 +3492,42 @@
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53">
+        <v>120</v>
+      </c>
+      <c r="J53">
+        <v>90</v>
+      </c>
+      <c r="K53">
+        <v>70</v>
+      </c>
+      <c r="L53">
+        <v>110</v>
+      </c>
+      <c r="M53">
+        <v>70</v>
+      </c>
+      <c r="N53">
+        <v>60</v>
+      </c>
+      <c r="P53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>1097</v>
       </c>
       <c r="B54">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D54">
         <v>9</v>
@@ -2837,16 +3538,40 @@
       <c r="G54" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <v>10</v>
+      </c>
+      <c r="J54">
+        <v>55</v>
+      </c>
+      <c r="K54">
+        <v>25</v>
+      </c>
+      <c r="L54">
+        <v>35</v>
+      </c>
+      <c r="M54">
+        <v>25</v>
+      </c>
+      <c r="N54">
+        <v>95</v>
+      </c>
+      <c r="P54" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>1098</v>
       </c>
       <c r="B55">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D55">
         <v>9</v>
@@ -2857,19 +3582,40 @@
       <c r="G55" t="s">
         <v>35</v>
       </c>
-      <c r="H55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <v>35</v>
+      </c>
+      <c r="J55">
+        <v>100</v>
+      </c>
+      <c r="K55">
+        <v>50</v>
+      </c>
+      <c r="L55">
+        <v>50</v>
+      </c>
+      <c r="M55">
+        <v>70</v>
+      </c>
+      <c r="N55">
+        <v>120</v>
+      </c>
+      <c r="P55" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>1099</v>
       </c>
       <c r="B56">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D56">
         <v>9</v>
@@ -2880,16 +3626,40 @@
       <c r="G56" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>150</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <v>115</v>
+      </c>
+      <c r="L56">
+        <v>65</v>
+      </c>
+      <c r="M56">
+        <v>65</v>
+      </c>
+      <c r="N56">
+        <v>35</v>
+      </c>
+      <c r="P56" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>1100</v>
       </c>
       <c r="B57">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="D57">
         <v>9</v>
@@ -2900,16 +3670,43 @@
       <c r="G57" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="H57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57">
+        <v>90</v>
+      </c>
+      <c r="J57">
+        <v>102</v>
+      </c>
+      <c r="K57">
+        <v>73</v>
+      </c>
+      <c r="L57">
+        <v>78</v>
+      </c>
+      <c r="M57">
+        <v>65</v>
+      </c>
+      <c r="N57">
+        <v>70</v>
+      </c>
+      <c r="P57" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>1101</v>
       </c>
       <c r="B58">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D58">
         <v>9</v>
@@ -2918,21 +3715,42 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I58">
+        <v>70</v>
+      </c>
+      <c r="J58">
+        <v>45</v>
+      </c>
+      <c r="K58">
+        <v>40</v>
+      </c>
+      <c r="L58">
+        <v>45</v>
+      </c>
+      <c r="M58">
+        <v>40</v>
+      </c>
+      <c r="N58">
+        <v>75</v>
+      </c>
+      <c r="P58" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>1102</v>
       </c>
       <c r="B59">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="D59">
         <v>9</v>
@@ -2941,21 +3759,42 @@
         <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59">
+        <v>70</v>
+      </c>
+      <c r="K59">
+        <v>72</v>
+      </c>
+      <c r="L59">
+        <v>53</v>
+      </c>
+      <c r="M59">
+        <v>62</v>
+      </c>
+      <c r="N59">
+        <v>100</v>
+      </c>
+      <c r="P59" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>1103</v>
       </c>
       <c r="B60">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -2964,21 +3803,42 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
-      </c>
-      <c r="H60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
+      </c>
+      <c r="J60">
+        <v>160</v>
+      </c>
+      <c r="K60">
+        <v>97</v>
+      </c>
+      <c r="L60">
+        <v>106</v>
+      </c>
+      <c r="M60">
+        <v>87</v>
+      </c>
+      <c r="N60">
+        <v>100</v>
+      </c>
+      <c r="P60" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>1104</v>
       </c>
       <c r="B61">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D61">
         <v>9</v>
@@ -2989,16 +3849,40 @@
       <c r="G61" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="H61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61">
+        <v>41</v>
+      </c>
+      <c r="J61">
+        <v>35</v>
+      </c>
+      <c r="K61">
+        <v>45</v>
+      </c>
+      <c r="L61">
+        <v>58</v>
+      </c>
+      <c r="M61">
+        <v>51</v>
+      </c>
+      <c r="N61">
+        <v>30</v>
+      </c>
+      <c r="P61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>1105</v>
       </c>
       <c r="B62">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="D62">
         <v>9</v>
@@ -3010,18 +3894,39 @@
         <v>30</v>
       </c>
       <c r="H62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I62">
+        <v>52</v>
+      </c>
+      <c r="J62">
+        <v>53</v>
+      </c>
+      <c r="K62">
+        <v>60</v>
+      </c>
+      <c r="L62">
+        <v>78</v>
+      </c>
+      <c r="M62">
+        <v>78</v>
+      </c>
+      <c r="N62">
+        <v>33</v>
+      </c>
+      <c r="P62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>1106</v>
       </c>
       <c r="B63">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="D63">
         <v>9</v>
@@ -3030,18 +3935,42 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="H63" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63">
+        <v>78</v>
+      </c>
+      <c r="J63">
+        <v>69</v>
+      </c>
+      <c r="K63">
+        <v>90</v>
+      </c>
+      <c r="L63">
+        <v>125</v>
+      </c>
+      <c r="M63">
+        <v>109</v>
+      </c>
+      <c r="N63">
+        <v>39</v>
+      </c>
+      <c r="P63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>1107</v>
       </c>
       <c r="B64">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D64">
         <v>9</v>
@@ -3050,18 +3979,39 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I64">
+        <v>50</v>
+      </c>
+      <c r="J64">
+        <v>62</v>
+      </c>
+      <c r="K64">
+        <v>40</v>
+      </c>
+      <c r="L64">
+        <v>62</v>
+      </c>
+      <c r="M64">
+        <v>40</v>
+      </c>
+      <c r="N64">
+        <v>50</v>
+      </c>
+      <c r="P64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>1108</v>
       </c>
       <c r="B65">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D65">
         <v>9</v>
@@ -3070,21 +4020,42 @@
         <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I65">
+        <v>65</v>
+      </c>
+      <c r="J65">
+        <v>108</v>
+      </c>
+      <c r="K65">
+        <v>65</v>
+      </c>
+      <c r="L65">
+        <v>108</v>
+      </c>
+      <c r="M65">
+        <v>65</v>
+      </c>
+      <c r="N65">
+        <v>75</v>
+      </c>
+      <c r="P65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66">
         <v>1109</v>
       </c>
       <c r="B66">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="D66">
         <v>9</v>
@@ -3093,21 +4064,42 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
-      </c>
-      <c r="H66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I66">
+        <v>61</v>
+      </c>
+      <c r="J66">
+        <v>31</v>
+      </c>
+      <c r="K66">
+        <v>41</v>
+      </c>
+      <c r="L66">
+        <v>59</v>
+      </c>
+      <c r="M66">
+        <v>35</v>
+      </c>
+      <c r="N66">
+        <v>45</v>
+      </c>
+      <c r="P66" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>1110</v>
       </c>
       <c r="B67">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D67">
         <v>9</v>
@@ -3116,18 +4108,42 @@
         <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I67">
+        <v>109</v>
+      </c>
+      <c r="J67">
+        <v>64</v>
+      </c>
+      <c r="K67">
+        <v>91</v>
+      </c>
+      <c r="L67">
+        <v>103</v>
+      </c>
+      <c r="M67">
+        <v>83</v>
+      </c>
+      <c r="N67">
+        <v>45</v>
+      </c>
+      <c r="P67" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68">
         <v>1111</v>
       </c>
       <c r="B68">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D68">
         <v>9</v>
@@ -3136,18 +4152,42 @@
         <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="H68" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68">
+        <v>45</v>
+      </c>
+      <c r="J68">
+        <v>70</v>
+      </c>
+      <c r="K68">
+        <v>63</v>
+      </c>
+      <c r="L68">
+        <v>30</v>
+      </c>
+      <c r="M68">
+        <v>45</v>
+      </c>
+      <c r="N68">
+        <v>47</v>
+      </c>
+      <c r="P68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69">
         <v>1112</v>
       </c>
       <c r="B69">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D69">
         <v>9</v>
@@ -3156,18 +4196,42 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69">
+        <v>80</v>
+      </c>
+      <c r="J69">
+        <v>119</v>
+      </c>
+      <c r="K69">
+        <v>90</v>
+      </c>
+      <c r="L69">
+        <v>54</v>
+      </c>
+      <c r="M69">
+        <v>67</v>
+      </c>
+      <c r="N69">
+        <v>90</v>
+      </c>
+      <c r="P69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70">
         <v>1113</v>
       </c>
       <c r="B70">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D70">
         <v>9</v>
@@ -3176,18 +4240,39 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I70">
+        <v>70</v>
+      </c>
+      <c r="J70">
+        <v>85</v>
+      </c>
+      <c r="K70">
+        <v>145</v>
+      </c>
+      <c r="L70">
+        <v>60</v>
+      </c>
+      <c r="M70">
+        <v>55</v>
+      </c>
+      <c r="N70">
+        <v>65</v>
+      </c>
+      <c r="P70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>1114</v>
       </c>
       <c r="B71">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D71">
         <v>9</v>
@@ -3196,18 +4281,42 @@
         <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I71">
+        <v>50</v>
+      </c>
+      <c r="J71">
+        <v>50</v>
+      </c>
+      <c r="K71">
+        <v>45</v>
+      </c>
+      <c r="L71">
+        <v>40</v>
+      </c>
+      <c r="M71">
+        <v>45</v>
+      </c>
+      <c r="N71">
+        <v>75</v>
+      </c>
+      <c r="P71" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>1115</v>
       </c>
       <c r="B72">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="D72">
         <v>9</v>
@@ -3216,21 +4325,42 @@
         <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
-      </c>
-      <c r="H72" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I72">
+        <v>74</v>
+      </c>
+      <c r="J72">
+        <v>75</v>
+      </c>
+      <c r="K72">
+        <v>70</v>
+      </c>
+      <c r="L72">
+        <v>65</v>
+      </c>
+      <c r="M72">
+        <v>75</v>
+      </c>
+      <c r="N72">
+        <v>111</v>
+      </c>
+      <c r="P72" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>1116</v>
       </c>
       <c r="B73">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D73">
         <v>9</v>
@@ -3239,21 +4369,42 @@
         <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
-      </c>
-      <c r="H73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I73">
+        <v>74</v>
+      </c>
+      <c r="J73">
+        <v>75</v>
+      </c>
+      <c r="K73">
+        <v>70</v>
+      </c>
+      <c r="L73">
+        <v>65</v>
+      </c>
+      <c r="M73">
+        <v>75</v>
+      </c>
+      <c r="N73">
+        <v>111</v>
+      </c>
+      <c r="P73" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74">
         <v>1117</v>
       </c>
       <c r="B74">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D74">
         <v>9</v>
@@ -3264,19 +4415,37 @@
       <c r="G74" t="s">
         <v>41</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74">
+        <v>108</v>
+      </c>
+      <c r="J74">
+        <v>68</v>
+      </c>
+      <c r="K74">
+        <v>45</v>
+      </c>
+      <c r="L74">
+        <v>30</v>
+      </c>
+      <c r="M74">
         <v>40</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="N74">
+        <v>43</v>
+      </c>
+      <c r="P74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>1118</v>
       </c>
       <c r="B75">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D75">
         <v>9</v>
@@ -3285,21 +4454,39 @@
         <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
-      </c>
-      <c r="H75" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I75">
+        <v>170</v>
+      </c>
+      <c r="J75">
+        <v>113</v>
+      </c>
+      <c r="K75">
+        <v>65</v>
+      </c>
+      <c r="L75">
+        <v>45</v>
+      </c>
+      <c r="M75">
+        <v>55</v>
+      </c>
+      <c r="N75">
+        <v>73</v>
+      </c>
+      <c r="P75" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76">
         <v>1119</v>
       </c>
       <c r="B76">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C76" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="D76">
         <v>9</v>
@@ -3311,18 +4498,42 @@
         <v>40</v>
       </c>
       <c r="H76" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I76">
+        <v>65</v>
+      </c>
+      <c r="J76">
+        <v>75</v>
+      </c>
+      <c r="K76">
+        <v>45</v>
+      </c>
+      <c r="L76">
+        <v>35</v>
+      </c>
+      <c r="M76">
+        <v>45</v>
+      </c>
+      <c r="N76">
+        <v>55</v>
+      </c>
+      <c r="P76" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77">
         <v>1120</v>
       </c>
       <c r="B77">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="D77">
         <v>9</v>
@@ -3331,18 +4542,45 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77">
+        <v>90</v>
+      </c>
+      <c r="J77">
+        <v>95</v>
+      </c>
+      <c r="K77">
+        <v>66</v>
+      </c>
+      <c r="L77">
+        <v>45</v>
+      </c>
+      <c r="M77">
+        <v>65</v>
+      </c>
+      <c r="N77">
+        <v>62</v>
+      </c>
+      <c r="P77" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78">
         <v>1121</v>
       </c>
       <c r="B78">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C78" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D78">
         <v>9</v>
@@ -3351,21 +4589,45 @@
         <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H78" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I78">
+        <v>115</v>
+      </c>
+      <c r="J78">
+        <v>145</v>
+      </c>
+      <c r="K78">
+        <v>92</v>
+      </c>
+      <c r="L78">
+        <v>75</v>
+      </c>
+      <c r="M78">
+        <v>86</v>
+      </c>
+      <c r="N78">
+        <v>87</v>
+      </c>
+      <c r="P78" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79">
         <v>1122</v>
       </c>
       <c r="B79">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="D79">
         <v>9</v>
@@ -3374,21 +4636,45 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H79" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I79">
+        <v>68</v>
+      </c>
+      <c r="J79">
+        <v>50</v>
+      </c>
+      <c r="K79">
+        <v>60</v>
+      </c>
+      <c r="L79">
+        <v>120</v>
+      </c>
+      <c r="M79">
+        <v>95</v>
+      </c>
+      <c r="N79">
+        <v>82</v>
+      </c>
+      <c r="P79" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80">
         <v>1123</v>
       </c>
       <c r="B80">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="C80" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="D80">
         <v>9</v>
@@ -3397,21 +4683,45 @@
         <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H80" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I80">
+        <v>68</v>
+      </c>
+      <c r="J80">
+        <v>50</v>
+      </c>
+      <c r="K80">
+        <v>60</v>
+      </c>
+      <c r="L80">
+        <v>120</v>
+      </c>
+      <c r="M80">
+        <v>95</v>
+      </c>
+      <c r="N80">
+        <v>82</v>
+      </c>
+      <c r="P80" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81">
         <v>1124</v>
       </c>
       <c r="B81">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C81" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="D81">
         <v>9</v>
@@ -3420,21 +4730,45 @@
         <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H81" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I81">
+        <v>68</v>
+      </c>
+      <c r="J81">
+        <v>50</v>
+      </c>
+      <c r="K81">
+        <v>60</v>
+      </c>
+      <c r="L81">
+        <v>120</v>
+      </c>
+      <c r="M81">
+        <v>95</v>
+      </c>
+      <c r="N81">
+        <v>82</v>
+      </c>
+      <c r="P81" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82">
         <v>1125</v>
       </c>
       <c r="B82">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C82" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D82">
         <v>9</v>
@@ -3443,21 +4777,42 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H82" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I82">
+        <v>70</v>
+      </c>
+      <c r="J82">
+        <v>95</v>
+      </c>
+      <c r="K82">
+        <v>65</v>
+      </c>
+      <c r="L82">
+        <v>85</v>
+      </c>
+      <c r="M82">
+        <v>65</v>
+      </c>
+      <c r="N82">
+        <v>121</v>
+      </c>
+      <c r="P82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83">
         <v>1126</v>
       </c>
       <c r="B83">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D83">
         <v>9</v>
@@ -3466,21 +4821,39 @@
         <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
-      </c>
-      <c r="H83" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I83">
+        <v>45</v>
+      </c>
+      <c r="J83">
+        <v>50</v>
+      </c>
+      <c r="K83">
+        <v>20</v>
+      </c>
+      <c r="L83">
+        <v>40</v>
+      </c>
+      <c r="M83">
+        <v>25</v>
+      </c>
+      <c r="N83">
+        <v>60</v>
+      </c>
+      <c r="P83" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84">
         <v>1127</v>
       </c>
       <c r="B84">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D84">
         <v>9</v>
@@ -3489,21 +4862,42 @@
         <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H84" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84">
+        <v>60</v>
+      </c>
+      <c r="J84">
+        <v>75</v>
+      </c>
+      <c r="K84">
+        <v>40</v>
+      </c>
+      <c r="L84">
+        <v>50</v>
+      </c>
+      <c r="M84">
+        <v>40</v>
+      </c>
+      <c r="N84">
+        <v>85</v>
+      </c>
+      <c r="P84" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85">
         <v>1128</v>
       </c>
       <c r="B85">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D85">
         <v>9</v>
@@ -3512,18 +4906,42 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="H85" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85">
+        <v>70</v>
+      </c>
+      <c r="J85">
+        <v>115</v>
+      </c>
+      <c r="K85">
+        <v>70</v>
+      </c>
+      <c r="L85">
+        <v>70</v>
+      </c>
+      <c r="M85">
+        <v>60</v>
+      </c>
+      <c r="N85">
+        <v>105</v>
+      </c>
+      <c r="P85" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86">
         <v>1129</v>
       </c>
       <c r="B86">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="C86" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D86">
         <v>9</v>
@@ -3532,18 +4950,45 @@
         <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="H86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86">
+        <v>40</v>
+      </c>
+      <c r="J86">
+        <v>40</v>
+      </c>
+      <c r="K86">
+        <v>35</v>
+      </c>
+      <c r="L86">
+        <v>55</v>
+      </c>
+      <c r="M86">
+        <v>40</v>
+      </c>
+      <c r="N86">
+        <v>70</v>
+      </c>
+      <c r="P86" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87">
         <v>1130</v>
       </c>
       <c r="B87">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D87">
         <v>9</v>
@@ -3552,18 +4997,45 @@
         <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="H87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87">
+        <v>70</v>
+      </c>
+      <c r="J87">
+        <v>70</v>
+      </c>
+      <c r="K87">
+        <v>60</v>
+      </c>
+      <c r="L87">
+        <v>105</v>
+      </c>
+      <c r="M87">
+        <v>60</v>
+      </c>
+      <c r="N87">
+        <v>125</v>
+      </c>
+      <c r="P87" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88">
         <v>1131</v>
       </c>
       <c r="B88">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="C88" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D88">
         <v>9</v>
@@ -3572,18 +5044,42 @@
         <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="H88" t="s">
+        <v>32</v>
+      </c>
+      <c r="I88">
+        <v>70</v>
+      </c>
+      <c r="J88">
+        <v>103</v>
+      </c>
+      <c r="K88">
+        <v>85</v>
+      </c>
+      <c r="L88">
+        <v>60</v>
+      </c>
+      <c r="M88">
+        <v>85</v>
+      </c>
+      <c r="N88">
+        <v>82</v>
+      </c>
+      <c r="P88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89">
         <v>1132</v>
       </c>
       <c r="B89">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C89" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="D89">
         <v>9</v>
@@ -3592,21 +5088,42 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H89" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I89">
+        <v>82</v>
+      </c>
+      <c r="J89">
+        <v>96</v>
+      </c>
+      <c r="K89">
+        <v>51</v>
+      </c>
+      <c r="L89">
+        <v>45</v>
+      </c>
+      <c r="M89">
+        <v>51</v>
+      </c>
+      <c r="N89">
+        <v>92</v>
+      </c>
+      <c r="P89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90">
         <v>1133</v>
       </c>
       <c r="B90">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="C90" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D90">
         <v>9</v>
@@ -3615,21 +5132,42 @@
         <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H90" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I90">
+        <v>82</v>
+      </c>
+      <c r="J90">
+        <v>96</v>
+      </c>
+      <c r="K90">
+        <v>51</v>
+      </c>
+      <c r="L90">
+        <v>45</v>
+      </c>
+      <c r="M90">
+        <v>51</v>
+      </c>
+      <c r="N90">
+        <v>92</v>
+      </c>
+      <c r="P90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91">
         <v>1134</v>
       </c>
       <c r="B91">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C91" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="D91">
         <v>9</v>
@@ -3638,21 +5176,42 @@
         <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H91" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I91">
+        <v>82</v>
+      </c>
+      <c r="J91">
+        <v>96</v>
+      </c>
+      <c r="K91">
+        <v>51</v>
+      </c>
+      <c r="L91">
+        <v>45</v>
+      </c>
+      <c r="M91">
+        <v>51</v>
+      </c>
+      <c r="N91">
+        <v>92</v>
+      </c>
+      <c r="P91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92">
         <v>1135</v>
       </c>
       <c r="B92">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="C92" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="D92">
         <v>9</v>
@@ -3661,21 +5220,42 @@
         <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H92" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I92">
+        <v>82</v>
+      </c>
+      <c r="J92">
+        <v>96</v>
+      </c>
+      <c r="K92">
+        <v>51</v>
+      </c>
+      <c r="L92">
+        <v>45</v>
+      </c>
+      <c r="M92">
+        <v>51</v>
+      </c>
+      <c r="N92">
+        <v>92</v>
+      </c>
+      <c r="P92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93">
         <v>1136</v>
       </c>
       <c r="B93">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="C93" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D93">
         <v>9</v>
@@ -3684,18 +5264,42 @@
         <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="H93" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93">
+        <v>82</v>
+      </c>
+      <c r="J93">
+        <v>115</v>
+      </c>
+      <c r="K93">
+        <v>74</v>
+      </c>
+      <c r="L93">
+        <v>75</v>
+      </c>
+      <c r="M93">
+        <v>64</v>
+      </c>
+      <c r="N93">
+        <v>90</v>
+      </c>
+      <c r="P93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94">
         <v>1137</v>
       </c>
       <c r="B94">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="D94">
         <v>9</v>
@@ -3704,18 +5308,42 @@
         <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I94">
+        <v>70</v>
+      </c>
+      <c r="J94">
+        <v>100</v>
+      </c>
+      <c r="K94">
+        <v>115</v>
+      </c>
+      <c r="L94">
+        <v>35</v>
+      </c>
+      <c r="M94">
+        <v>55</v>
+      </c>
+      <c r="N94">
+        <v>75</v>
+      </c>
+      <c r="P94" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95">
         <v>1138</v>
       </c>
       <c r="B95">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D95">
         <v>9</v>
@@ -3724,18 +5352,39 @@
         <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I95">
+        <v>55</v>
+      </c>
+      <c r="J95">
+        <v>55</v>
+      </c>
+      <c r="K95">
+        <v>75</v>
+      </c>
+      <c r="L95">
+        <v>35</v>
+      </c>
+      <c r="M95">
+        <v>35</v>
+      </c>
+      <c r="N95">
+        <v>25</v>
+      </c>
+      <c r="P95" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96">
         <v>1139</v>
       </c>
       <c r="B96">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D96">
         <v>9</v>
@@ -3744,18 +5393,39 @@
         <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I96">
+        <v>60</v>
+      </c>
+      <c r="J96">
+        <v>60</v>
+      </c>
+      <c r="K96">
+        <v>100</v>
+      </c>
+      <c r="L96">
+        <v>35</v>
+      </c>
+      <c r="M96">
+        <v>65</v>
+      </c>
+      <c r="N96">
+        <v>35</v>
+      </c>
+      <c r="P96" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97">
         <v>1140</v>
       </c>
       <c r="B97">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="C97" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D97">
         <v>9</v>
@@ -3764,21 +5434,39 @@
         <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
-      </c>
-      <c r="H97" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I97">
+        <v>100</v>
+      </c>
+      <c r="J97">
+        <v>100</v>
+      </c>
+      <c r="K97">
+        <v>130</v>
+      </c>
+      <c r="L97">
+        <v>45</v>
+      </c>
+      <c r="M97">
+        <v>90</v>
+      </c>
+      <c r="N97">
+        <v>35</v>
+      </c>
+      <c r="P97" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98">
         <v>1141</v>
       </c>
       <c r="B98">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="D98">
         <v>9</v>
@@ -3787,21 +5475,42 @@
         <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H98" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I98">
+        <v>48</v>
+      </c>
+      <c r="J98">
+        <v>35</v>
+      </c>
+      <c r="K98">
+        <v>42</v>
+      </c>
+      <c r="L98">
+        <v>105</v>
+      </c>
+      <c r="M98">
+        <v>60</v>
+      </c>
+      <c r="N98">
+        <v>60</v>
+      </c>
+      <c r="P98" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99">
         <v>1142</v>
       </c>
       <c r="B99">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="C99" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="D99">
         <v>9</v>
@@ -3810,18 +5519,42 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="H99" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99">
+        <v>83</v>
+      </c>
+      <c r="J99">
+        <v>55</v>
+      </c>
+      <c r="K99">
+        <v>90</v>
+      </c>
+      <c r="L99">
+        <v>130</v>
+      </c>
+      <c r="M99">
+        <v>81</v>
+      </c>
+      <c r="N99">
+        <v>86</v>
+      </c>
+      <c r="P99" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100">
         <v>1143</v>
       </c>
       <c r="B100">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="D100">
         <v>9</v>
@@ -3830,754 +5563,1384 @@
         <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H100" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I100">
+        <v>40</v>
+      </c>
+      <c r="J100">
+        <v>65</v>
+      </c>
+      <c r="K100">
+        <v>35</v>
+      </c>
+      <c r="L100">
+        <v>40</v>
+      </c>
+      <c r="M100">
+        <v>35</v>
+      </c>
+      <c r="N100">
+        <v>75</v>
+      </c>
+      <c r="P100" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101">
         <v>1144</v>
       </c>
       <c r="B101">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="C101" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D101">
         <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H101" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I101">
+        <v>63</v>
+      </c>
+      <c r="J101">
+        <v>95</v>
+      </c>
+      <c r="K101">
+        <v>65</v>
+      </c>
+      <c r="L101">
+        <v>80</v>
+      </c>
+      <c r="M101">
+        <v>72</v>
+      </c>
+      <c r="N101">
+        <v>110</v>
+      </c>
+      <c r="P101" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102">
         <v>1145</v>
       </c>
       <c r="B102">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="C102" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D102">
         <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
+        <v>53</v>
+      </c>
+      <c r="I102">
+        <v>37</v>
+      </c>
+      <c r="J102">
+        <v>55</v>
+      </c>
+      <c r="K102">
+        <v>70</v>
+      </c>
+      <c r="L102">
         <v>30</v>
       </c>
-      <c r="H102" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="M102">
+        <v>55</v>
+      </c>
+      <c r="N102">
+        <v>65</v>
+      </c>
+      <c r="P102" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103">
         <v>1146</v>
       </c>
       <c r="B103">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="D103">
         <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>195</v>
-      </c>
-      <c r="H103" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I103">
+        <v>57</v>
+      </c>
+      <c r="J103">
+        <v>80</v>
+      </c>
+      <c r="K103">
+        <v>115</v>
+      </c>
+      <c r="L103">
+        <v>50</v>
+      </c>
+      <c r="M103">
+        <v>80</v>
+      </c>
+      <c r="N103">
+        <v>95</v>
+      </c>
+      <c r="P103" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104">
         <v>1147</v>
       </c>
       <c r="B104">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="C104" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D104">
         <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I104">
+        <v>60</v>
+      </c>
+      <c r="J104">
+        <v>78</v>
+      </c>
+      <c r="K104">
+        <v>60</v>
+      </c>
+      <c r="L104">
+        <v>40</v>
+      </c>
+      <c r="M104">
+        <v>51</v>
+      </c>
+      <c r="N104">
+        <v>51</v>
+      </c>
+      <c r="P104" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105">
         <v>1148</v>
       </c>
       <c r="B105">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="C105" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D105">
         <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>53</v>
-      </c>
-      <c r="H105" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I105">
+        <v>80</v>
+      </c>
+      <c r="J105">
+        <v>120</v>
+      </c>
+      <c r="K105">
+        <v>90</v>
+      </c>
+      <c r="L105">
+        <v>60</v>
+      </c>
+      <c r="M105">
+        <v>70</v>
+      </c>
+      <c r="N105">
+        <v>85</v>
+      </c>
+      <c r="P105" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106">
         <v>1149</v>
       </c>
       <c r="B106">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="C106" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D106">
         <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" t="s">
         <v>31</v>
       </c>
-      <c r="H106" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106">
+        <v>40</v>
+      </c>
+      <c r="J106">
+        <v>65</v>
+      </c>
+      <c r="K106">
+        <v>30</v>
+      </c>
+      <c r="L106">
+        <v>45</v>
+      </c>
+      <c r="M106">
+        <v>35</v>
+      </c>
+      <c r="N106">
+        <v>60</v>
+      </c>
+      <c r="P106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107">
         <v>1150</v>
       </c>
       <c r="B107">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="C107" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D107">
         <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H107" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I107">
+        <v>55</v>
+      </c>
+      <c r="J107">
+        <v>115</v>
+      </c>
+      <c r="K107">
+        <v>70</v>
+      </c>
+      <c r="L107">
+        <v>80</v>
+      </c>
+      <c r="M107">
+        <v>70</v>
+      </c>
+      <c r="N107">
+        <v>90</v>
+      </c>
+      <c r="P107" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108">
         <v>1151</v>
       </c>
       <c r="B108">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="C108" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="D108">
         <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I108">
+        <v>45</v>
+      </c>
+      <c r="J108">
+        <v>30</v>
+      </c>
+      <c r="K108">
+        <v>70</v>
+      </c>
+      <c r="L108">
+        <v>75</v>
+      </c>
+      <c r="M108">
+        <v>70</v>
+      </c>
+      <c r="N108">
+        <v>10</v>
+      </c>
+      <c r="P108" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109">
         <v>1152</v>
       </c>
       <c r="B109">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="C109" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="D109">
         <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H109" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I109">
+        <v>45</v>
+      </c>
+      <c r="J109">
+        <v>30</v>
+      </c>
+      <c r="K109">
+        <v>25</v>
+      </c>
+      <c r="L109">
+        <v>75</v>
+      </c>
+      <c r="M109">
+        <v>45</v>
+      </c>
+      <c r="N109">
+        <v>80</v>
+      </c>
+      <c r="P109" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110">
         <v>1153</v>
       </c>
       <c r="B110">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="C110" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D110">
         <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="H110" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I110">
+        <v>87</v>
+      </c>
+      <c r="J110">
+        <v>60</v>
+      </c>
+      <c r="K110">
+        <v>95</v>
+      </c>
+      <c r="L110">
+        <v>133</v>
+      </c>
+      <c r="M110">
+        <v>91</v>
+      </c>
+      <c r="N110">
+        <v>84</v>
+      </c>
+      <c r="P110" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111">
         <v>1154</v>
       </c>
       <c r="B111">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="C111" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D111">
         <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G111" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="H111" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I111">
+        <v>115</v>
+      </c>
+      <c r="J111">
+        <v>131</v>
+      </c>
+      <c r="K111">
+        <v>131</v>
+      </c>
+      <c r="L111">
+        <v>53</v>
+      </c>
+      <c r="M111">
+        <v>53</v>
+      </c>
+      <c r="N111">
+        <v>87</v>
+      </c>
+      <c r="P111" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112">
         <v>1155</v>
       </c>
       <c r="B112">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="C112" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D112">
         <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H112" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I112">
+        <v>111</v>
+      </c>
+      <c r="J112">
+        <v>127</v>
+      </c>
+      <c r="K112">
+        <v>99</v>
+      </c>
+      <c r="L112">
+        <v>79</v>
+      </c>
+      <c r="M112">
+        <v>99</v>
+      </c>
+      <c r="N112">
+        <v>55</v>
+      </c>
+      <c r="P112" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113">
         <v>1156</v>
       </c>
       <c r="B113">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="C113" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="D113">
         <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>198</v>
-      </c>
-      <c r="G113" t="s">
-        <v>32</v>
-      </c>
-      <c r="H113" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114">
         <v>1157</v>
       </c>
       <c r="B114">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="C114" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D114">
         <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H114" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I114">
+        <v>85</v>
+      </c>
+      <c r="J114">
+        <v>81</v>
+      </c>
+      <c r="K114">
+        <v>97</v>
+      </c>
+      <c r="L114">
+        <v>121</v>
+      </c>
+      <c r="M114">
+        <v>85</v>
+      </c>
+      <c r="N114">
+        <v>101</v>
+      </c>
+      <c r="P114" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115">
         <v>1158</v>
       </c>
       <c r="B115">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="C115" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D115">
         <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H115" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I115">
+        <v>115</v>
+      </c>
+      <c r="J115">
+        <v>65</v>
+      </c>
+      <c r="K115">
+        <v>99</v>
+      </c>
+      <c r="L115">
+        <v>65</v>
+      </c>
+      <c r="M115">
+        <v>115</v>
+      </c>
+      <c r="N115">
+        <v>111</v>
+      </c>
+      <c r="P115" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116">
         <v>1159</v>
       </c>
       <c r="B116">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="C116" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D116">
         <v>9</v>
       </c>
       <c r="E116" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" t="s">
         <v>53</v>
       </c>
-      <c r="H116" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116">
+        <v>55</v>
+      </c>
+      <c r="J116">
+        <v>55</v>
+      </c>
+      <c r="K116">
+        <v>55</v>
+      </c>
+      <c r="L116">
+        <v>135</v>
+      </c>
+      <c r="M116">
+        <v>135</v>
+      </c>
+      <c r="N116">
+        <v>135</v>
+      </c>
+      <c r="P116" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117">
         <v>1160</v>
       </c>
       <c r="B117">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="C117" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D117">
         <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I117">
+        <v>85</v>
+      </c>
+      <c r="J117">
+        <v>135</v>
+      </c>
+      <c r="K117">
+        <v>79</v>
+      </c>
+      <c r="L117">
+        <v>85</v>
+      </c>
+      <c r="M117">
+        <v>105</v>
+      </c>
+      <c r="N117">
+        <v>81</v>
+      </c>
+      <c r="P117" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118">
         <v>1161</v>
       </c>
       <c r="B118">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C118" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D118">
         <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G118" t="s">
+        <v>40</v>
+      </c>
+      <c r="H118" t="s">
         <v>32</v>
       </c>
-      <c r="H118" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118">
+        <v>105</v>
+      </c>
+      <c r="J118">
+        <v>139</v>
+      </c>
+      <c r="K118">
+        <v>71</v>
+      </c>
+      <c r="L118">
+        <v>55</v>
+      </c>
+      <c r="M118">
+        <v>101</v>
+      </c>
+      <c r="N118">
+        <v>119</v>
+      </c>
+      <c r="P118" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119">
         <v>1162</v>
       </c>
       <c r="B119">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="C119" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D119">
         <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H119" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I119">
+        <v>90</v>
+      </c>
+      <c r="J119">
+        <v>112</v>
+      </c>
+      <c r="K119">
+        <v>120</v>
+      </c>
+      <c r="L119">
+        <v>72</v>
+      </c>
+      <c r="M119">
+        <v>70</v>
+      </c>
+      <c r="N119">
+        <v>106</v>
+      </c>
+      <c r="P119" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120">
         <v>1163</v>
       </c>
       <c r="B120">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="C120" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="D120">
         <v>9</v>
       </c>
       <c r="E120" t="s">
-        <v>197</v>
-      </c>
-      <c r="G120" t="s">
-        <v>32</v>
-      </c>
-      <c r="H120" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121">
         <v>1164</v>
       </c>
       <c r="B121">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="C121" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D121">
         <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H121" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I121">
+        <v>80</v>
+      </c>
+      <c r="J121">
+        <v>70</v>
+      </c>
+      <c r="K121">
+        <v>60</v>
+      </c>
+      <c r="L121">
+        <v>140</v>
+      </c>
+      <c r="M121">
+        <v>110</v>
+      </c>
+      <c r="N121">
+        <v>110</v>
+      </c>
+      <c r="P121" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122">
         <v>1165</v>
       </c>
       <c r="B122">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="C122" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="D122">
         <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="G122" t="s">
+        <v>34</v>
+      </c>
+      <c r="H122" t="s">
         <v>29</v>
       </c>
-      <c r="H122" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122">
+        <v>154</v>
+      </c>
+      <c r="J122">
+        <v>140</v>
+      </c>
+      <c r="K122">
+        <v>108</v>
+      </c>
+      <c r="L122">
+        <v>50</v>
+      </c>
+      <c r="M122">
+        <v>68</v>
+      </c>
+      <c r="N122">
+        <v>50</v>
+      </c>
+      <c r="P122" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123">
         <v>1166</v>
       </c>
       <c r="B123">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="C123" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D123">
         <v>9</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="G123" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H123" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I123">
+        <v>94</v>
+      </c>
+      <c r="J123">
+        <v>80</v>
+      </c>
+      <c r="K123">
+        <v>86</v>
+      </c>
+      <c r="L123">
+        <v>122</v>
+      </c>
+      <c r="M123">
+        <v>80</v>
+      </c>
+      <c r="N123">
+        <v>108</v>
+      </c>
+      <c r="P123" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124">
         <v>1167</v>
       </c>
       <c r="B124">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="C124" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D124">
         <v>9</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="G124" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H124" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I124">
+        <v>100</v>
+      </c>
+      <c r="J124">
+        <v>134</v>
+      </c>
+      <c r="K124">
+        <v>110</v>
+      </c>
+      <c r="L124">
+        <v>70</v>
+      </c>
+      <c r="M124">
+        <v>84</v>
+      </c>
+      <c r="N124">
+        <v>72</v>
+      </c>
+      <c r="P124" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125">
         <v>1168</v>
       </c>
       <c r="B125">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="C125" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D125">
         <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="G125" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H125" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I125">
+        <v>56</v>
+      </c>
+      <c r="J125">
+        <v>80</v>
+      </c>
+      <c r="K125">
+        <v>114</v>
+      </c>
+      <c r="L125">
+        <v>124</v>
+      </c>
+      <c r="M125">
+        <v>60</v>
+      </c>
+      <c r="N125">
+        <v>136</v>
+      </c>
+      <c r="P125" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126">
         <v>1169</v>
       </c>
       <c r="B126">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="C126" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D126">
         <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="G126" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="H126" t="s">
+        <v>34</v>
+      </c>
+      <c r="I126">
+        <v>74</v>
+      </c>
+      <c r="J126">
+        <v>130</v>
+      </c>
+      <c r="K126">
+        <v>90</v>
+      </c>
+      <c r="L126">
+        <v>120</v>
+      </c>
+      <c r="M126">
+        <v>60</v>
+      </c>
+      <c r="N126">
+        <v>116</v>
+      </c>
+      <c r="P126" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127">
         <v>1170</v>
       </c>
       <c r="B127">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="C127" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="D127">
         <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="G127" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H127" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I127">
+        <v>165</v>
+      </c>
+      <c r="J127">
+        <v>110</v>
+      </c>
+      <c r="K127">
+        <v>130</v>
+      </c>
+      <c r="L127">
+        <v>50</v>
+      </c>
+      <c r="M127">
+        <v>80</v>
+      </c>
+      <c r="N127">
+        <v>45</v>
+      </c>
+      <c r="P127" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128">
         <v>1171</v>
       </c>
       <c r="B128">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="C128" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="D128">
         <v>9</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="G128" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H128" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I128">
+        <v>80</v>
+      </c>
+      <c r="J128">
+        <v>130</v>
+      </c>
+      <c r="K128">
+        <v>80</v>
+      </c>
+      <c r="L128">
+        <v>90</v>
+      </c>
+      <c r="M128">
+        <v>65</v>
+      </c>
+      <c r="N128">
+        <v>135</v>
+      </c>
+      <c r="P128" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129">
         <v>1172</v>
       </c>
       <c r="B129">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="C129" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D129">
         <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="G129" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H129" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129">
+        <v>85</v>
+      </c>
+      <c r="J129">
+        <v>90</v>
+      </c>
+      <c r="K129">
+        <v>100</v>
+      </c>
+      <c r="L129">
+        <v>100</v>
+      </c>
+      <c r="M129">
+        <v>135</v>
+      </c>
+      <c r="N129">
+        <v>70</v>
+      </c>
+      <c r="P129" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130">
         <v>1173</v>
       </c>
       <c r="B130">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="C130" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="D130">
         <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="G130" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H130" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I130">
+        <v>55</v>
+      </c>
+      <c r="J130">
+        <v>80</v>
+      </c>
+      <c r="K130">
+        <v>80</v>
+      </c>
+      <c r="L130">
+        <v>145</v>
+      </c>
+      <c r="M130">
+        <v>120</v>
+      </c>
+      <c r="N130">
+        <v>100</v>
+      </c>
+      <c r="P130" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131">
         <v>1174</v>
       </c>
       <c r="B131">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="C131" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D131">
         <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H131" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I131">
+        <v>100</v>
+      </c>
+      <c r="J131">
+        <v>135</v>
+      </c>
+      <c r="K131">
+        <v>115</v>
+      </c>
+      <c r="L131">
+        <v>85</v>
+      </c>
+      <c r="M131">
+        <v>100</v>
+      </c>
+      <c r="N131">
+        <v>135</v>
+      </c>
+      <c r="P131" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132">
         <v>1175</v>
       </c>
       <c r="B132">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="C132" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D132">
         <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H132" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I132">
+        <v>100</v>
+      </c>
+      <c r="J132">
+        <v>85</v>
+      </c>
+      <c r="K132">
+        <v>100</v>
+      </c>
+      <c r="L132">
+        <v>135</v>
+      </c>
+      <c r="M132">
+        <v>115</v>
+      </c>
+      <c r="N132">
+        <v>135</v>
+      </c>
+      <c r="P132" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133">
         <v>1176</v>
       </c>
       <c r="B133">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="C133" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="D133">
         <v>9</v>
@@ -4586,44 +6949,86 @@
         <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H133" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I133">
+        <v>50</v>
+      </c>
+      <c r="J133">
+        <v>45</v>
+      </c>
+      <c r="K133">
+        <v>45</v>
+      </c>
+      <c r="L133">
+        <v>35</v>
+      </c>
+      <c r="M133">
+        <v>64</v>
+      </c>
+      <c r="N133">
+        <v>58</v>
+      </c>
+      <c r="P133" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134">
         <v>1177</v>
       </c>
       <c r="B134">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="C134" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="D134">
         <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="H134" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I134">
+        <v>65</v>
+      </c>
+      <c r="J134">
+        <v>55</v>
+      </c>
+      <c r="K134">
+        <v>55</v>
+      </c>
+      <c r="L134">
+        <v>45</v>
+      </c>
+      <c r="M134">
+        <v>82</v>
+      </c>
+      <c r="N134">
+        <v>78</v>
+      </c>
+      <c r="P134" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135">
         <v>1178</v>
       </c>
       <c r="B135">
-        <v>128</v>
+        <v>1002</v>
       </c>
       <c r="C135" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="D135">
         <v>9</v>
@@ -4632,18 +7037,42 @@
         <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="H135" t="s">
+        <v>39</v>
+      </c>
+      <c r="I135">
+        <v>85</v>
+      </c>
+      <c r="J135">
+        <v>75</v>
+      </c>
+      <c r="K135">
+        <v>77</v>
+      </c>
+      <c r="L135">
+        <v>70</v>
+      </c>
+      <c r="M135">
+        <v>105</v>
+      </c>
+      <c r="N135">
+        <v>94</v>
+      </c>
+      <c r="P135" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
       <c r="A136">
         <v>1179</v>
       </c>
       <c r="B136">
-        <v>128</v>
+        <v>1003</v>
       </c>
       <c r="C136" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="D136">
         <v>9</v>
@@ -4652,21 +7081,39 @@
         <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
-      </c>
-      <c r="H136" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136">
+        <v>40</v>
+      </c>
+      <c r="J136">
+        <v>50</v>
+      </c>
+      <c r="K136">
+        <v>40</v>
+      </c>
+      <c r="L136">
+        <v>50</v>
+      </c>
+      <c r="M136">
+        <v>40</v>
+      </c>
+      <c r="N136">
+        <v>35</v>
+      </c>
+      <c r="P136" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137">
         <v>1180</v>
       </c>
       <c r="B137">
-        <v>128</v>
+        <v>1004</v>
       </c>
       <c r="C137" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D137">
         <v>9</v>
@@ -4675,33 +7122,488 @@
         <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H137" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I137">
+        <v>85</v>
+      </c>
+      <c r="J137">
+        <v>60</v>
+      </c>
+      <c r="K137">
+        <v>100</v>
+      </c>
+      <c r="L137">
+        <v>125</v>
+      </c>
+      <c r="M137">
+        <v>80</v>
+      </c>
+      <c r="N137">
+        <v>75</v>
+      </c>
+      <c r="P137" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138">
         <v>1181</v>
       </c>
       <c r="B138">
+        <v>1005</v>
+      </c>
+      <c r="C138" t="s">
+        <v>156</v>
+      </c>
+      <c r="D138">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>36</v>
+      </c>
+      <c r="G138" t="s">
+        <v>27</v>
+      </c>
+      <c r="H138" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138">
+        <v>75</v>
+      </c>
+      <c r="J138">
+        <v>125</v>
+      </c>
+      <c r="K138">
+        <v>80</v>
+      </c>
+      <c r="L138">
+        <v>60</v>
+      </c>
+      <c r="M138">
+        <v>100</v>
+      </c>
+      <c r="N138">
+        <v>85</v>
+      </c>
+      <c r="P138" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139">
+        <v>1182</v>
+      </c>
+      <c r="B139">
+        <v>1006</v>
+      </c>
+      <c r="C139" t="s">
+        <v>157</v>
+      </c>
+      <c r="D139">
+        <v>9</v>
+      </c>
+      <c r="E139" t="s">
+        <v>36</v>
+      </c>
+      <c r="G139" t="s">
+        <v>49</v>
+      </c>
+      <c r="H139" t="s">
+        <v>30</v>
+      </c>
+      <c r="I139">
+        <v>40</v>
+      </c>
+      <c r="J139">
+        <v>40</v>
+      </c>
+      <c r="K139">
+        <v>35</v>
+      </c>
+      <c r="L139">
+        <v>50</v>
+      </c>
+      <c r="M139">
+        <v>100</v>
+      </c>
+      <c r="N139">
+        <v>70</v>
+      </c>
+      <c r="P139" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140">
+        <v>1183</v>
+      </c>
+      <c r="B140">
+        <v>1007</v>
+      </c>
+      <c r="C140" t="s">
+        <v>158</v>
+      </c>
+      <c r="D140">
+        <v>9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>36</v>
+      </c>
+      <c r="G140" t="s">
+        <v>49</v>
+      </c>
+      <c r="H140" t="s">
+        <v>30</v>
+      </c>
+      <c r="I140">
+        <v>80</v>
+      </c>
+      <c r="J140">
+        <v>70</v>
+      </c>
+      <c r="K140">
+        <v>65</v>
+      </c>
+      <c r="L140">
+        <v>80</v>
+      </c>
+      <c r="M140">
+        <v>120</v>
+      </c>
+      <c r="N140">
+        <v>100</v>
+      </c>
+      <c r="P140" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141">
+        <v>1184</v>
+      </c>
+      <c r="B141">
+        <v>1008</v>
+      </c>
+      <c r="C141" t="s">
+        <v>161</v>
+      </c>
+      <c r="D141">
+        <v>9</v>
+      </c>
+      <c r="E141" t="s">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
+        <v>32</v>
+      </c>
+      <c r="H141" t="s">
+        <v>39</v>
+      </c>
+      <c r="I141">
+        <v>100</v>
+      </c>
+      <c r="J141">
+        <v>135</v>
+      </c>
+      <c r="K141">
+        <v>120</v>
+      </c>
+      <c r="L141">
+        <v>60</v>
+      </c>
+      <c r="M141">
+        <v>85</v>
+      </c>
+      <c r="N141">
+        <v>50</v>
+      </c>
+      <c r="P141" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142">
+        <v>1185</v>
+      </c>
+      <c r="B142">
+        <v>1009</v>
+      </c>
+      <c r="C142" t="s">
+        <v>160</v>
+      </c>
+      <c r="D142">
+        <v>9</v>
+      </c>
+      <c r="E142" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" t="s">
+        <v>33</v>
+      </c>
+      <c r="H142" t="s">
+        <v>49</v>
+      </c>
+      <c r="I142">
+        <v>130</v>
+      </c>
+      <c r="J142">
+        <v>75</v>
+      </c>
+      <c r="K142">
+        <v>60</v>
+      </c>
+      <c r="L142">
+        <v>45</v>
+      </c>
+      <c r="M142">
+        <v>100</v>
+      </c>
+      <c r="N142">
+        <v>20</v>
+      </c>
+      <c r="P142" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143">
+        <v>1186</v>
+      </c>
+      <c r="B143">
+        <v>1010</v>
+      </c>
+      <c r="C143" t="s">
+        <v>170</v>
+      </c>
+      <c r="D143">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" t="s">
+        <v>34</v>
+      </c>
+      <c r="H143" t="s">
+        <v>31</v>
+      </c>
+      <c r="I143">
+        <v>110</v>
+      </c>
+      <c r="J143">
+        <v>115</v>
+      </c>
+      <c r="K143">
+        <v>80</v>
+      </c>
+      <c r="L143">
+        <v>50</v>
+      </c>
+      <c r="M143">
+        <v>90</v>
+      </c>
+      <c r="N143">
+        <v>90</v>
+      </c>
+      <c r="P143" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144">
+        <v>1187</v>
+      </c>
+      <c r="B144">
+        <v>1011</v>
+      </c>
+      <c r="C144" t="s">
+        <v>204</v>
+      </c>
+      <c r="D144">
+        <v>9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145">
+        <v>1188</v>
+      </c>
+      <c r="B145">
+        <v>128</v>
+      </c>
+      <c r="C145" t="s">
+        <v>201</v>
+      </c>
+      <c r="D145">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>36</v>
+      </c>
+      <c r="G145" t="s">
+        <v>34</v>
+      </c>
+      <c r="I145">
+        <v>75</v>
+      </c>
+      <c r="J145">
+        <v>110</v>
+      </c>
+      <c r="K145">
+        <v>105</v>
+      </c>
+      <c r="L145">
+        <v>30</v>
+      </c>
+      <c r="M145">
+        <v>70</v>
+      </c>
+      <c r="N145">
+        <v>100</v>
+      </c>
+      <c r="P145" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146">
+        <v>1189</v>
+      </c>
+      <c r="B146">
+        <v>128</v>
+      </c>
+      <c r="C146" t="s">
+        <v>202</v>
+      </c>
+      <c r="D146">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>36</v>
+      </c>
+      <c r="G146" t="s">
+        <v>34</v>
+      </c>
+      <c r="H146" t="s">
+        <v>27</v>
+      </c>
+      <c r="I146">
+        <v>75</v>
+      </c>
+      <c r="J146">
+        <v>110</v>
+      </c>
+      <c r="K146">
+        <v>105</v>
+      </c>
+      <c r="L146">
+        <v>30</v>
+      </c>
+      <c r="M146">
+        <v>70</v>
+      </c>
+      <c r="N146">
+        <v>100</v>
+      </c>
+      <c r="P146" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
+      <c r="A147">
+        <v>1190</v>
+      </c>
+      <c r="B147">
+        <v>128</v>
+      </c>
+      <c r="C147" t="s">
+        <v>203</v>
+      </c>
+      <c r="D147">
+        <v>9</v>
+      </c>
+      <c r="E147" t="s">
+        <v>36</v>
+      </c>
+      <c r="G147" t="s">
+        <v>34</v>
+      </c>
+      <c r="H147" t="s">
+        <v>35</v>
+      </c>
+      <c r="I147">
+        <v>75</v>
+      </c>
+      <c r="J147">
+        <v>110</v>
+      </c>
+      <c r="K147">
+        <v>105</v>
+      </c>
+      <c r="L147">
+        <v>30</v>
+      </c>
+      <c r="M147">
+        <v>70</v>
+      </c>
+      <c r="N147">
+        <v>100</v>
+      </c>
+      <c r="P147" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="A148">
+        <v>1191</v>
+      </c>
+      <c r="B148">
         <v>194</v>
       </c>
-      <c r="C138" t="s">
-        <v>171</v>
-      </c>
-      <c r="D138">
-        <v>9</v>
-      </c>
-      <c r="E138" t="s">
-        <v>36</v>
-      </c>
-      <c r="G138" t="s">
+      <c r="C148" t="s">
+        <v>159</v>
+      </c>
+      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>36</v>
+      </c>
+      <c r="G148" t="s">
         <v>33</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H148" t="s">
         <v>49</v>
+      </c>
+      <c r="I148">
+        <v>55</v>
+      </c>
+      <c r="J148">
+        <v>45</v>
+      </c>
+      <c r="K148">
+        <v>45</v>
+      </c>
+      <c r="L148">
+        <v>25</v>
+      </c>
+      <c r="M148">
+        <v>25</v>
+      </c>
+      <c r="N148">
+        <v>15</v>
+      </c>
+      <c r="P148" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/pokemon_dex_hisui_paldea.xlsx
+++ b/data/pokemon_dex_hisui_paldea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panpa\Google Drive\Data science\pkmr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB8AF94-E86D-4141-AABF-45FAC1E32F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D6C972-5198-40FD-8FDC-EEF954163001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{B1A15022-E2F9-4772-961C-F274C4B8A95E}"/>
+    <workbookView xWindow="1245" yWindow="30" windowWidth="19245" windowHeight="11490" xr2:uid="{B1A15022-E2F9-4772-961C-F274C4B8A95E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,51 +584,6 @@
     <t>Gholdengo</t>
   </si>
   <si>
-    <t>Maushold Additional Form @</t>
-  </si>
-  <si>
-    <t>Palafin Base Form @</t>
-  </si>
-  <si>
-    <t>Oinkologne Male Form @</t>
-  </si>
-  <si>
-    <t>Oinkologne Female Form @</t>
-  </si>
-  <si>
-    <t>Dudunsparce Two-segment @</t>
-  </si>
-  <si>
-    <t>Dudunsparce Three-segment @</t>
-  </si>
-  <si>
-    <t>Palafin Hero Form @</t>
-  </si>
-  <si>
-    <t>Maushold Base Form @</t>
-  </si>
-  <si>
-    <t>Tatsugiri Colour1 @</t>
-  </si>
-  <si>
-    <t>Tatsugiri Colour2 @</t>
-  </si>
-  <si>
-    <t>Tatsugiri Colour3 @</t>
-  </si>
-  <si>
-    <t>Squawkabilly Colour1 @</t>
-  </si>
-  <si>
-    <t>Squawkabilly Colour2 @</t>
-  </si>
-  <si>
-    <t>Squawkabilly Colour3 @</t>
-  </si>
-  <si>
-    <t>Squawkabilly Colour4 @</t>
-  </si>
-  <si>
     <t>Gimmighoul (Chest Form)</t>
   </si>
   <si>
@@ -702,6 +657,51 @@
   </si>
   <si>
     <t>Chi-Yu (Fish)</t>
+  </si>
+  <si>
+    <t>Oinkologne (Male Form @)</t>
+  </si>
+  <si>
+    <t>Oinkologne (Female Form @)</t>
+  </si>
+  <si>
+    <t>Dudunsparce (Two-segment @)</t>
+  </si>
+  <si>
+    <t>Dudunsparce (Three-segment @)</t>
+  </si>
+  <si>
+    <t>Palafin (Base Form @)</t>
+  </si>
+  <si>
+    <t>Palafin (Hero Form @)</t>
+  </si>
+  <si>
+    <t>Maushold (Base Form @)</t>
+  </si>
+  <si>
+    <t>Maushold (Additional Form @)</t>
+  </si>
+  <si>
+    <t>Tatsugiri (Colour1 @)</t>
+  </si>
+  <si>
+    <t>Tatsugiri (Colour2 @)</t>
+  </si>
+  <si>
+    <t>Tatsugiri (Colour3 @)</t>
+  </si>
+  <si>
+    <t>Squawkabilly (Colour1 @)</t>
+  </si>
+  <si>
+    <t>Squawkabilly (Colour2 @)</t>
+  </si>
+  <si>
+    <t>Squawkabilly (Colour3 @)</t>
+  </si>
+  <si>
+    <t>Squawkabilly (Colour4 @)</t>
   </si>
 </sst>
 </file>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5180E553-97C3-4D11-A13B-DD8E8ABEE531}">
   <dimension ref="A1:Q148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1114,10 +1114,10 @@
         <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="Q1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1164,7 +1164,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1211,7 +1211,7 @@
         <v>120</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1261,7 +1261,7 @@
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1361,7 +1361,7 @@
         <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1411,7 +1411,7 @@
         <v>50</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1461,7 +1461,7 @@
         <v>50</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1511,7 +1511,7 @@
         <v>50</v>
       </c>
       <c r="P9" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1661,7 +1661,7 @@
         <v>75</v>
       </c>
       <c r="P12" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1711,7 +1711,7 @@
         <v>75</v>
       </c>
       <c r="P13" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1758,7 +1758,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1805,7 +1805,7 @@
         <v>150</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1855,7 +1855,7 @@
         <v>87.5</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1905,7 +1905,7 @@
         <v>50</v>
       </c>
       <c r="P17" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1955,7 +1955,7 @@
         <v>50</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2005,7 +2005,7 @@
         <v>87.5</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2102,7 +2102,7 @@
         <v>50</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2152,7 +2152,7 @@
         <v>87.5</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2202,7 +2202,7 @@
         <v>87.5</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2402,10 +2402,10 @@
         <v>50</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="Q27" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2496,7 +2496,7 @@
         <v>65</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Q29" t="s">
         <v>30</v>
@@ -2540,7 +2540,7 @@
         <v>83</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Q30" t="s">
         <v>30</v>
@@ -2587,7 +2587,7 @@
         <v>123</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Q31" t="s">
         <v>30</v>
@@ -2631,7 +2631,7 @@
         <v>36</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2672,7 +2672,7 @@
         <v>49</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2716,7 +2716,7 @@
         <v>66</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2760,7 +2760,7 @@
         <v>38</v>
       </c>
       <c r="Q35" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2804,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="Q36" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2851,7 +2851,7 @@
         <v>38</v>
       </c>
       <c r="Q37" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2892,7 +2892,7 @@
         <v>35</v>
       </c>
       <c r="P38" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2903,7 +2903,7 @@
         <v>916</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -2933,7 +2933,7 @@
         <v>65</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2944,7 +2944,7 @@
         <v>916</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="D40">
         <v>9</v>
@@ -2974,7 +2974,7 @@
         <v>65</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2985,7 +2985,7 @@
         <v>917</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="D41">
         <v>9</v>
@@ -3015,7 +3015,7 @@
         <v>55</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3026,7 +3026,7 @@
         <v>917</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="D42">
         <v>9</v>
@@ -3056,7 +3056,7 @@
         <v>55</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3349,7 +3349,7 @@
         <v>34</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3390,7 +3390,7 @@
         <v>68</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3516,7 +3516,7 @@
         <v>60</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3557,10 +3557,10 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="Q54" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3601,10 +3601,10 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="Q55" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3645,10 +3645,10 @@
         <v>35</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="Q56" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3692,10 +3692,10 @@
         <v>70</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="Q57" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3736,10 +3736,10 @@
         <v>75</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Q58" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3750,7 +3750,7 @@
         <v>934</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="D59">
         <v>9</v>
@@ -3780,10 +3780,10 @@
         <v>100</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Q59" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3794,7 +3794,7 @@
         <v>934</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -3824,10 +3824,10 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Q60" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4085,10 +4085,10 @@
         <v>45</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="Q66" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4129,10 +4129,10 @@
         <v>45</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="Q67" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4176,7 +4176,7 @@
         <v>47</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4220,7 +4220,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4261,7 +4261,7 @@
         <v>65</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4302,7 +4302,7 @@
         <v>75</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Q71" t="s">
         <v>53</v>
@@ -4316,7 +4316,7 @@
         <v>946</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="D72">
         <v>9</v>
@@ -4346,7 +4346,7 @@
         <v>111</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Q72" t="s">
         <v>53</v>
@@ -4360,7 +4360,7 @@
         <v>946</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="D73">
         <v>9</v>
@@ -4390,7 +4390,7 @@
         <v>111</v>
       </c>
       <c r="P73" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Q73" t="s">
         <v>53</v>
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4475,7 +4475,7 @@
         <v>73</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4522,7 +4522,7 @@
         <v>40</v>
       </c>
       <c r="Q76" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4569,7 +4569,7 @@
         <v>40</v>
       </c>
       <c r="Q77" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4616,7 +4616,7 @@
         <v>40</v>
       </c>
       <c r="Q78" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4627,7 +4627,7 @@
         <v>952</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="D79">
         <v>9</v>
@@ -4660,10 +4660,10 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="Q79" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -4674,7 +4674,7 @@
         <v>952</v>
       </c>
       <c r="C80" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D80">
         <v>9</v>
@@ -4707,10 +4707,10 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="Q80" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -4721,7 +4721,7 @@
         <v>952</v>
       </c>
       <c r="C81" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="D81">
         <v>9</v>
@@ -4754,10 +4754,10 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="Q81" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -4801,7 +4801,7 @@
         <v>121</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -4842,7 +4842,7 @@
         <v>60</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -4886,7 +4886,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -4930,7 +4930,7 @@
         <v>105</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -4974,7 +4974,7 @@
         <v>70</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="Q86" t="s">
         <v>38</v>
@@ -5021,7 +5021,7 @@
         <v>125</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="Q87" t="s">
         <v>38</v>
@@ -5079,7 +5079,7 @@
         <v>960</v>
       </c>
       <c r="C89" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="D89">
         <v>9</v>
@@ -5123,7 +5123,7 @@
         <v>960</v>
       </c>
       <c r="C90" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D90">
         <v>9</v>
@@ -5167,7 +5167,7 @@
         <v>960</v>
       </c>
       <c r="C91" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="D91">
         <v>9</v>
@@ -5211,7 +5211,7 @@
         <v>960</v>
       </c>
       <c r="C92" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="D92">
         <v>9</v>
@@ -5329,10 +5329,10 @@
         <v>75</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="Q94" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -5373,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -5414,7 +5414,7 @@
         <v>35</v>
       </c>
       <c r="P96" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -5455,7 +5455,7 @@
         <v>35</v>
       </c>
       <c r="P97" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -5499,7 +5499,7 @@
         <v>60</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -5543,7 +5543,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -5587,7 +5587,7 @@
         <v>75</v>
       </c>
       <c r="P100" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -5631,7 +5631,7 @@
         <v>110</v>
       </c>
       <c r="P101" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -5672,10 +5672,10 @@
         <v>65</v>
       </c>
       <c r="P102" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Q102" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -5716,10 +5716,10 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Q103" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -5760,7 +5760,7 @@
         <v>51</v>
       </c>
       <c r="P104" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -5801,7 +5801,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -5900,7 +5900,7 @@
         <v>976</v>
       </c>
       <c r="C108" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D108">
         <v>9</v>
@@ -5930,7 +5930,7 @@
         <v>10</v>
       </c>
       <c r="P108" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -5941,7 +5941,7 @@
         <v>976</v>
       </c>
       <c r="C109" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D109">
         <v>9</v>
@@ -5971,7 +5971,7 @@
         <v>80</v>
       </c>
       <c r="P109" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -6015,7 +6015,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -6059,7 +6059,7 @@
         <v>87</v>
       </c>
       <c r="P111" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -6103,7 +6103,7 @@
         <v>55</v>
       </c>
       <c r="P112" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6114,7 +6114,7 @@
         <v>980</v>
       </c>
       <c r="C113" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -6164,7 +6164,7 @@
         <v>101</v>
       </c>
       <c r="P114" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6208,7 +6208,7 @@
         <v>111</v>
       </c>
       <c r="P115" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6252,7 +6252,7 @@
         <v>135</v>
       </c>
       <c r="P116" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6296,7 +6296,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -6340,7 +6340,7 @@
         <v>119</v>
       </c>
       <c r="P118" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -6384,7 +6384,7 @@
         <v>106</v>
       </c>
       <c r="P119" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -6395,7 +6395,7 @@
         <v>987</v>
       </c>
       <c r="C120" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D120">
         <v>9</v>
@@ -6445,7 +6445,7 @@
         <v>110</v>
       </c>
       <c r="P121" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -6489,7 +6489,7 @@
         <v>50</v>
       </c>
       <c r="P122" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -6533,7 +6533,7 @@
         <v>108</v>
       </c>
       <c r="P123" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -6577,7 +6577,7 @@
         <v>72</v>
       </c>
       <c r="P124" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -6621,7 +6621,7 @@
         <v>136</v>
       </c>
       <c r="P125" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -6665,7 +6665,7 @@
         <v>116</v>
       </c>
       <c r="P126" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -6676,7 +6676,7 @@
         <v>994</v>
       </c>
       <c r="C127" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D127">
         <v>9</v>
@@ -6709,7 +6709,7 @@
         <v>45</v>
       </c>
       <c r="P127" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -6720,7 +6720,7 @@
         <v>995</v>
       </c>
       <c r="C128" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D128">
         <v>9</v>
@@ -6753,7 +6753,7 @@
         <v>135</v>
       </c>
       <c r="P128" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -6764,7 +6764,7 @@
         <v>996</v>
       </c>
       <c r="C129" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D129">
         <v>9</v>
@@ -6797,7 +6797,7 @@
         <v>70</v>
       </c>
       <c r="P129" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -6808,7 +6808,7 @@
         <v>997</v>
       </c>
       <c r="C130" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D130">
         <v>9</v>
@@ -6841,7 +6841,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -6885,7 +6885,7 @@
         <v>135</v>
       </c>
       <c r="P131" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -6929,7 +6929,7 @@
         <v>135</v>
       </c>
       <c r="P132" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7102,7 +7102,7 @@
         <v>35</v>
       </c>
       <c r="P136" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7146,7 +7146,7 @@
         <v>75</v>
       </c>
       <c r="P137" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -7190,7 +7190,7 @@
         <v>85</v>
       </c>
       <c r="P138" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -7322,7 +7322,7 @@
         <v>50</v>
       </c>
       <c r="P141" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -7366,7 +7366,7 @@
         <v>20</v>
       </c>
       <c r="P142" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -7410,7 +7410,7 @@
         <v>90</v>
       </c>
       <c r="P143" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -7421,7 +7421,7 @@
         <v>1011</v>
       </c>
       <c r="C144" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D144">
         <v>9</v>
@@ -7438,7 +7438,7 @@
         <v>128</v>
       </c>
       <c r="C145" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D145">
         <v>9</v>
@@ -7468,7 +7468,7 @@
         <v>100</v>
       </c>
       <c r="P145" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="146" spans="1:17">
@@ -7479,7 +7479,7 @@
         <v>128</v>
       </c>
       <c r="C146" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D146">
         <v>9</v>
@@ -7512,7 +7512,7 @@
         <v>100</v>
       </c>
       <c r="P146" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -7523,7 +7523,7 @@
         <v>128</v>
       </c>
       <c r="C147" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D147">
         <v>9</v>
@@ -7556,7 +7556,7 @@
         <v>100</v>
       </c>
       <c r="P147" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="148" spans="1:17">
@@ -7600,10 +7600,10 @@
         <v>15</v>
       </c>
       <c r="P148" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="Q148" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/pokemon_dex_hisui_paldea.xlsx
+++ b/data/pokemon_dex_hisui_paldea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panpa\Google Drive\Data science\pkmr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D6C972-5198-40FD-8FDC-EEF954163001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BA7A0E-7D46-4AB3-9FEB-D809ED35A403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="30" windowWidth="19245" windowHeight="11490" xr2:uid="{B1A15022-E2F9-4772-961C-F274C4B8A95E}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{B1A15022-E2F9-4772-961C-F274C4B8A95E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5180E553-97C3-4D11-A13B-DD8E8ABEE531}">
   <dimension ref="A1:Q148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
